--- a/JS-Frameworks-Self-Evaluation-Protocol-Roman .xlsx
+++ b/JS-Frameworks-Self-Evaluation-Protocol-Roman .xlsx
@@ -453,7 +453,7 @@
   <dimension ref="B1:E44"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="C47" activeCellId="0" sqref="C47:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -610,7 +610,7 @@
       </c>
       <c r="E14" s="13"/>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="12" t="s">
         <v>20</v>
       </c>
@@ -782,11 +782,13 @@
       </c>
       <c r="E31" s="13"/>
     </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="13"/>
+      <c r="C32" s="13" t="n">
+        <v>5</v>
+      </c>
       <c r="D32" s="13" t="n">
         <v>5</v>
       </c>
@@ -906,7 +908,7 @@
       </c>
       <c r="C44" s="18" t="n">
         <f aca="false">SUM(C6:C43)</f>
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D44" s="18" t="n">
         <v>370</v>
